--- a/uitwerkingen/les01/files/les1_uitwerkingen.xlsx
+++ b/uitwerkingen/les01/files/les1_uitwerkingen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\2020-2021\kwartaal1\Biomethoden1\nieuw\les1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\biomethoden1_git_pages\biomethoden1\uitwerkingen\les01\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4420BA71-E90F-4F53-B692-82BA35FB23C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1010C5B-DB76-4D42-990F-B26F18B41ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8ACE8E46-9745-924D-AA36-B60C64EBF1CC}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>V stock1</t>
   </si>
   <si>
-    <t>m stock1</t>
-  </si>
-  <si>
     <t>Vanuit stock 1 maken we een tweede stock (stock2)</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>conc. insuline (mg/ml)</t>
+  </si>
+  <si>
+    <t>c stock1</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -217,6 +217,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10348CA-7DEC-0944-859C-A596909BD632}">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -668,7 +669,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3">
         <f>C4/1000*C3</f>
@@ -680,7 +681,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <f>C6/1000</f>
@@ -692,7 +693,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <f>C7*1000</f>
@@ -704,7 +705,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <f>C8*10</f>
@@ -719,47 +720,49 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7">
         <f>C4/1000*1000</f>
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <f>10/1000*10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7">
+        <f>10/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <f>10-C13</f>
-        <v>9.9</v>
-      </c>
-      <c r="D14" t="s">
+        <v>9.99</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -771,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -924,35 +927,35 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>99.7</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6">
         <f>100/C4</f>
         <v>1.0030090270812437</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -960,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
@@ -1069,7 +1072,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1130,7 +1133,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>0.2</v>
@@ -1141,10 +1144,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>

--- a/uitwerkingen/les01/files/les1_uitwerkingen.xlsx
+++ b/uitwerkingen/les01/files/les1_uitwerkingen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hjur\OneDrive - Hanzehogeschool Groningen\web_pages\biomethoden1_git_pages\biomethoden1\uitwerkingen\les01\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1010C5B-DB76-4D42-990F-B26F18B41ACB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674F92BD-CAF6-405D-B710-5CE9367E00B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8ACE8E46-9745-924D-AA36-B60C64EBF1CC}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Blanco</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>V stock (ul)</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>c stock1</t>
+  </si>
+  <si>
+    <t>V water</t>
   </si>
 </sst>
 </file>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10348CA-7DEC-0944-859C-A596909BD632}">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -636,134 +636,134 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>399.4</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
         <f>C4/1000*C3</f>
         <v>7.9879999999999995</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4">
         <f>C6/1000</f>
         <v>7.9880000000000003E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <f>C7*1000</f>
         <v>7.9880000000000004</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <f>C8*10</f>
         <v>79.88000000000001</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <f>C4/1000*1000</f>
         <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <f>10-C13</f>
         <v>9.99</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -774,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -927,35 +927,35 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>99.7</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <f>100/C4</f>
         <v>1.0030090270812437</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
@@ -963,16 +963,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1133,27 +1133,27 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>0.2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
